--- a/CRM Comercial 3 Compass.xlsx
+++ b/CRM Comercial 3 Compass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gonzalo PL\Desktop\Automatizaciones\Automatizacione-EMP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25AB9F0-CE58-4FBE-854E-718C71DF8AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CE6216-FBB2-416B-BDDE-D7FE96FBFA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="705" windowWidth="25155" windowHeight="12570" activeTab="3" xr2:uid="{4C01EB41-D205-410D-966C-732FE24FB6DB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{4C01EB41-D205-410D-966C-732FE24FB6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="AGENDA" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="480">
   <si>
     <t>Estado</t>
   </si>
@@ -1490,6 +1490,15 @@
   </si>
   <si>
     <t>Costos</t>
+  </si>
+  <si>
+    <t>I22471</t>
+  </si>
+  <si>
+    <t>I23000</t>
+  </si>
+  <si>
+    <t>I25103</t>
   </si>
 </sst>
 </file>
@@ -5638,7 +5647,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B855144B-4197-4549-8D48-273061AFE61D}" name="TablaDinámica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B855144B-4197-4549-8D48-273061AFE61D}" name="TablaDinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F4:G5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
@@ -5830,7 +5839,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B98CFE05-721E-4109-98D5-409C81FEED8F}" name="TablaDinámica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B98CFE05-721E-4109-98D5-409C81FEED8F}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A18:D29" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="23">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -6613,7 +6622,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C4037DD-C640-44E8-AA1E-9F9C078DD6AE}" name="TablaDinámica4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C4037DD-C640-44E8-AA1E-9F9C078DD6AE}" name="TablaDinámica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
@@ -7571,7 +7580,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14378,7 +14387,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+      <selection activeCell="F4" sqref="F4:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14488,6 +14497,9 @@
       <c r="D4" t="s">
         <v>462</v>
       </c>
+      <c r="F4" t="s">
+        <v>477</v>
+      </c>
       <c r="G4" t="s">
         <v>463</v>
       </c>
@@ -14525,6 +14537,9 @@
       <c r="E5">
         <v>20601646367</v>
       </c>
+      <c r="F5" t="s">
+        <v>478</v>
+      </c>
       <c r="G5" t="s">
         <v>468</v>
       </c>
@@ -14562,6 +14577,9 @@
       </c>
       <c r="E6">
         <v>20613618687</v>
+      </c>
+      <c r="F6" t="s">
+        <v>479</v>
       </c>
       <c r="G6" t="s">
         <v>473</v>
